--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9277</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7449</v>
+        <v>0.7551</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6973</v>
+        <v>0.7746</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.888</v>
+        <v>0.8909</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7637</v>
+        <v>0.8389</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6301</v>
+        <v>0.6857</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +519,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.953</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="9">
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7919</v>
+        <v>0.8244</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9892</v>
+        <v>0.9704</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -563,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5636</v>
+        <v>0.5592</v>
       </c>
     </row>
     <row r="13">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5795</v>
+        <v>0.7225</v>
       </c>
     </row>
     <row r="14">
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7348</v>
+        <v>0.7168</v>
       </c>
     </row>
     <row r="15">
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7818000000000001</v>
+        <v>0.7962</v>
       </c>
     </row>
     <row r="16">
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6893</v>
+        <v>0.7738</v>
       </c>
     </row>
     <row r="17">
@@ -618,7 +618,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.9978</v>
       </c>
     </row>
     <row r="18">
@@ -629,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7009</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="19">
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7522</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="20">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6828</v>
+        <v>0.8808</v>
       </c>
     </row>
     <row r="21">
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6828</v>
+        <v>0.8829</v>
       </c>
     </row>
     <row r="22">
@@ -673,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7623</v>
+        <v>0.7464</v>
       </c>
     </row>
     <row r="23">
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8793</v>
+        <v>0.8829</v>
       </c>
     </row>
     <row r="24">
@@ -695,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6604</v>
+        <v>0.8649</v>
       </c>
     </row>
     <row r="25">
@@ -706,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7681</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="26">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9364</v>
+        <v>0.9408</v>
       </c>
     </row>
     <row r="27">
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6604</v>
+        <v>0.9285</v>
       </c>
     </row>
     <row r="28">
@@ -739,7 +739,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8952</v>
+        <v>0.9169</v>
       </c>
     </row>
     <row r="29">
@@ -750,7 +750,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7681</v>
+        <v>0.7587</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5318000000000001</v>
+        <v>0.7233000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6431</v>
+        <v>0.9516</v>
       </c>
     </row>
     <row r="32">
@@ -783,7 +783,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7673</v>
+        <v>0.7608</v>
       </c>
     </row>
     <row r="33">
@@ -794,7 +794,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6026</v>
+        <v>0.8996</v>
       </c>
     </row>
     <row r="34">
@@ -805,7 +805,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9393</v>
+        <v>0.9386</v>
       </c>
     </row>
     <row r="35">
@@ -816,7 +816,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8201000000000001</v>
+        <v>0.8158</v>
       </c>
     </row>
     <row r="36">
@@ -827,7 +827,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6792</v>
+        <v>0.6763</v>
       </c>
     </row>
     <row r="37">
@@ -838,7 +838,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8685</v>
+        <v>0.9668</v>
       </c>
     </row>
     <row r="38">
@@ -849,7 +849,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0.763</v>
+        <v>0.8548</v>
       </c>
     </row>
     <row r="39">
@@ -860,7 +860,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.8779</v>
       </c>
     </row>
     <row r="40">
@@ -871,7 +871,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="41">
@@ -882,7 +882,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.8714</v>
       </c>
     </row>
     <row r="42">
@@ -893,7 +893,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.9386</v>
       </c>
     </row>
     <row r="43">
@@ -904,7 +904,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.7724</v>
       </c>
     </row>
     <row r="44">
@@ -915,7 +915,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.9104</v>
       </c>
     </row>
     <row r="45">
@@ -926,7 +926,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -937,7 +937,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7551</v>
+        <v>0.8633999999999999</v>
       </c>
     </row>
     <row r="4">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANYIIK\Desktop\final_res\SEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B147C01-3A2B-4BDE-9491-8C1CE2E8AB1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5D4A4-0428-6E4B-85BA-410C329B6DEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>people</t>
   </si>
@@ -36,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,10 +59,11 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -66,15 +78,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +109,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -116,7 +141,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -124,8 +149,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -135,11 +163,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,13 +471,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="144" workbookViewId="0">
+      <selection activeCell="B41" activeCellId="11" sqref="B4 B5 B6 B9 B18 B21 B22 B25 B35 B38 B39 B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -463,7 +493,7 @@
         <v>0.95660000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -471,31 +501,31 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0.81789999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0.89090000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>0.8569</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -503,31 +533,31 @@
         <v>0.68569999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>0.99060000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>0.82440000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>0.97040000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -535,31 +565,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.67630000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>0.69650000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>0.72250000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>0.7399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>0.71889999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>0.73119999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -567,7 +597,7 @@
         <v>0.79620000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -575,7 +605,7 @@
         <v>0.77380000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -583,15 +613,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="15">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>0.82010000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -599,7 +629,7 @@
         <v>0.73839999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -607,23 +637,23 @@
         <v>0.92989999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="15">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>0.88290000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="15">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>0.82230000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -631,7 +661,7 @@
         <v>0.93710000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -639,15 +669,15 @@
         <v>0.92920000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="15">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>0.8952</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -655,7 +685,7 @@
         <v>0.94079999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -663,7 +693,7 @@
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -671,7 +701,7 @@
         <v>0.91690000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" ht="15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -679,7 +709,7 @@
         <v>0.75870000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -687,7 +717,7 @@
         <v>0.72330000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" ht="15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -695,23 +725,23 @@
         <v>0.9516</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" ht="15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="4">
-        <v>0.76080000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>0.7681</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0.89959999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
+        <v>0.90169999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -719,23 +749,23 @@
         <v>0.93859999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" ht="15">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>0.81579999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>0.67630000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+        <v>0.68569999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -743,23 +773,23 @@
         <v>0.96679999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" ht="15">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>0.8548</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="15">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0.87790000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="5">
+        <v>0.89380000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -767,15 +797,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="15">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>0.87139999999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="5">
+        <v>0.88219999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -783,7 +813,7 @@
         <v>0.93859999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" ht="15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -791,15 +821,15 @@
         <v>0.77239999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>0.91039999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+        <v>0.97829999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -807,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -815,18 +845,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B47">
         <f>AVERAGE(B2:B46)</f>
-        <v>0.86200888888888871</v>
+        <v>0.8665044444444443</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/res/SEED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5D4A4-0428-6E4B-85BA-410C329B6DEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19A123-E414-A04A-BF08-181E073B697A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
   </si>
   <si>
     <t>平均</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -59,7 +59,6 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -67,13 +66,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -90,6 +82,13 @@
       <color rgb="FF9C5700"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -146,10 +145,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -162,8 +161,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -471,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="144" workbookViewId="0">
-      <selection activeCell="B41" activeCellId="11" sqref="B4 B5 B6 B9 B18 B21 B22 B25 B35 B38 B39 B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -593,8 +592,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>0.79620000000000002</v>
+      <c r="B15" s="5">
+        <v>0.82730000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
@@ -851,11 +850,11 @@
       </c>
       <c r="B47">
         <f>AVERAGE(B2:B46)</f>
-        <v>0.8665044444444443</v>
+        <v>0.86719555555555539</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19A123-E414-A04A-BF08-181E073B697A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D9AFB-3C41-3040-80EA-5BD1814CC942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,14 +40,14 @@
   </si>
   <si>
     <t>平均</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -80,6 +81,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -140,7 +149,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -151,23 +160,28 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="警告文本" xfId="4" builtinId="11"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,7 +518,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.81789999999999996</v>
       </c>
     </row>
@@ -512,7 +526,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.89090000000000003</v>
       </c>
     </row>
@@ -520,7 +534,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.8569</v>
       </c>
     </row>
@@ -528,7 +542,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.68569999999999998</v>
       </c>
     </row>
@@ -544,7 +558,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.82440000000000002</v>
       </c>
     </row>
@@ -568,7 +582,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.69650000000000001</v>
       </c>
     </row>
@@ -576,7 +590,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.7399</v>
       </c>
     </row>
@@ -584,7 +598,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0.73119999999999996</v>
       </c>
     </row>
@@ -592,7 +606,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>0.82730000000000004</v>
       </c>
     </row>
@@ -600,7 +614,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.77380000000000004</v>
       </c>
     </row>
@@ -616,7 +630,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.82010000000000005</v>
       </c>
     </row>
@@ -624,8 +638,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>0.73839999999999995</v>
+      <c r="B19" s="3">
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
@@ -640,7 +654,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>0.88290000000000002</v>
       </c>
     </row>
@@ -648,7 +662,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0.82230000000000003</v>
       </c>
     </row>
@@ -672,7 +686,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>0.8952</v>
       </c>
     </row>
@@ -704,7 +718,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>0.75870000000000004</v>
       </c>
     </row>
@@ -712,7 +726,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>0.72330000000000005</v>
       </c>
     </row>
@@ -728,7 +742,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>0.7681</v>
       </c>
     </row>
@@ -752,7 +766,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>0.81579999999999997</v>
       </c>
     </row>
@@ -760,7 +774,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>0.68569999999999998</v>
       </c>
     </row>
@@ -776,7 +790,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>0.8548</v>
       </c>
     </row>
@@ -784,7 +798,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>0.89380000000000004</v>
       </c>
     </row>
@@ -792,7 +806,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>0.75</v>
       </c>
     </row>
@@ -800,7 +814,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>0.88219999999999998</v>
       </c>
     </row>
@@ -816,7 +830,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>0.77239999999999998</v>
       </c>
     </row>
@@ -844,17 +858,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:2" ht="15">
+      <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="6">
         <f>AVERAGE(B2:B46)</f>
-        <v>0.86719555555555539</v>
+        <v>0.86820888888888881</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/res/SEED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/PycharmProjects/Finegrained_GNN/res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D9AFB-3C41-3040-80EA-5BD1814CC942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CDE176-807A-224C-B533-DFA1F5F9FE5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -518,7 +518,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.81789999999999996</v>
       </c>
     </row>
@@ -526,7 +526,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>0.89090000000000003</v>
       </c>
     </row>
@@ -558,7 +558,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.82440000000000002</v>
       </c>
     </row>
@@ -606,7 +606,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0.82730000000000004</v>
       </c>
     </row>
@@ -630,7 +630,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>0.82010000000000005</v>
       </c>
     </row>
@@ -654,7 +654,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>0.88290000000000002</v>
       </c>
     </row>
@@ -662,7 +662,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0.82230000000000003</v>
       </c>
     </row>
@@ -686,7 +686,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>0.8952</v>
       </c>
     </row>
@@ -766,7 +766,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>0.81579999999999997</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>0.89380000000000004</v>
       </c>
     </row>
@@ -814,7 +814,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>0.88219999999999998</v>
       </c>
     </row>

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ADFE41-7BDA-EA41-A2C6-EE206382C5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2D824B-928F-A744-998B-6E2C795AE7C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>0.78400000000000003</v>
+        <v>0.7883</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
@@ -694,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>0.94079999999999997</v>
+        <v>0.9798</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
@@ -718,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>0.75870000000000004</v>
+        <v>0.77959999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
@@ -863,7 +863,7 @@
       </c>
       <c r="B47" s="5">
         <f>AVERAGE(B2:B46)</f>
-        <v>0.86944666666666659</v>
+        <v>0.87087333333333328</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2D824B-928F-A744-998B-6E2C795AE7C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7C9E9-3F43-D34F-BE8C-F63C67B90682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,6 +59,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -646,7 +647,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>0.92989999999999995</v>
+        <v>0.93210000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
@@ -686,7 +687,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8952</v>
+        <v>0.90390000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
@@ -694,7 +695,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9798</v>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
@@ -718,7 +719,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>0.77959999999999996</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
@@ -742,7 +743,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>0.7681</v>
+        <v>0.78110000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
@@ -758,7 +759,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>0.93859999999999999</v>
+        <v>0.94650000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
@@ -774,7 +775,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>0.68569999999999998</v>
+        <v>0.7399</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
@@ -863,7 +864,7 @@
       </c>
       <c r="B47" s="5">
         <f>AVERAGE(B2:B46)</f>
-        <v>0.87087333333333328</v>
+        <v>0.87401999999999969</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/res/SEED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7C9E9-3F43-D34F-BE8C-F63C67B90682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7156203-4A0A-8A46-8E06-A8C0B4434E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </si>
   <si>
     <t>平均</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -61,6 +61,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -91,13 +98,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,16 +151,16 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -169,11 +169,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -679,7 +679,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>0.92920000000000003</v>
+        <v>0.93140000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
@@ -727,7 +727,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>0.72330000000000005</v>
+        <v>0.76519999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>0.9516</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
@@ -743,7 +743,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>0.78110000000000002</v>
+        <v>0.78759999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
@@ -751,7 +751,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>0.90169999999999995</v>
+        <v>0.90249999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
@@ -806,8 +806,8 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <v>0.75</v>
+      <c r="B40" s="2">
+        <v>0.95089999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
@@ -815,7 +815,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>0.88219999999999998</v>
+        <v>0.88370000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
@@ -831,7 +831,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>0.77239999999999998</v>
+        <v>0.7782</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
@@ -864,11 +864,11 @@
       </c>
       <c r="B47" s="5">
         <f>AVERAGE(B2:B46)</f>
-        <v>0.87401999999999969</v>
+        <v>0.8798199999999996</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/PycharmProjects/Finegrained_GNN/res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7156203-4A0A-8A46-8E06-A8C0B4434E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58FA642-F087-4D48-A71E-68D56713FF9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,8 +172,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -482,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -508,7 +508,7 @@
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0.90100000000000002</v>
@@ -516,39 +516,39 @@
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.81789999999999996</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.89090000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.89090000000000003</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.8569</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.8569</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.68569999999999998</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -556,315 +556,195 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
-        <v>0.82440000000000002</v>
+        <v>0.7399</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.82730000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.77380000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.69650000000000001</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3">
-        <v>0.7399</v>
+        <v>0.82010000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.73119999999999996</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.93210000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.82730000000000004</v>
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.93859999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.77380000000000004</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.93710000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>0.93140000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.82010000000000005</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.7883</v>
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.92849999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.93210000000000004</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2">
-        <v>0.93859999999999999</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.82230000000000003</v>
+        <v>11</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.90249999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2">
-        <v>0.93710000000000004</v>
+        <v>0.94650000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.93140000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.81579999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2">
-        <v>0.90390000000000004</v>
+        <v>0.9798</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.98699999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.89380000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2">
-        <v>0.92849999999999999</v>
+        <v>0.95089999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.91690000000000005</v>
+        <v>14</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.88370000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.82799999999999996</v>
+        <v>14</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.93859999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.76519999999999999</v>
+        <v>15</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2">
-        <v>0.95299999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.78759999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.90249999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.94650000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.81579999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.7399</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.96679999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.8548</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.89380000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.95089999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.88370000000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.93859999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.7782</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.97829999999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15">
-      <c r="A47" s="6" t="s">
+      <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="5">
-        <f>AVERAGE(B2:B46)</f>
-        <v>0.8798199999999996</v>
+      <c r="B32" s="5">
+        <f>AVERAGE(B2:B31)</f>
+        <v>0.91712666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/PycharmProjects/Finegrained_GNN/res/SEED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANYIIK\Desktop\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58FA642-F087-4D48-A71E-68D56713FF9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6C6997-E7F6-4604-90F4-BFF02B243144}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>people</t>
   </si>
@@ -40,14 +29,14 @@
   </si>
   <si>
     <t>平均</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,18 +48,10 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -78,7 +59,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -86,7 +67,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -94,10 +75,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,16 +139,16 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -169,11 +157,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -488,9 +476,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,39 +486,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.95660000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+        <v>0.94579999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
+        <v>0.91259999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.89090000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
+      <c r="B4" s="2">
+        <v>0.90169999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.8569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15">
+      <c r="B5" s="3">
+        <v>0.85119999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -538,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -546,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -554,31 +542,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.7399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15">
+      <c r="B9" s="4">
+        <v>0.81210000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.82730000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15">
+      <c r="B10" s="4">
+        <v>0.79549999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.77380000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15">
+      <c r="B11" s="4">
+        <v>0.75290000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -586,143 +574,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.82010000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15">
+      <c r="B13" s="4">
+        <v>0.82879999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>0.93210000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15">
+        <v>0.95009999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" s="2">
-        <v>0.93859999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15">
+        <v>0.91259999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>0.93710000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
+        <v>0.93279999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>0.93140000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
+        <v>0.95809999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" s="2">
-        <v>0.92849999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" s="3">
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
+      <c r="B20" s="4">
+        <v>0.79410000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" s="2">
-        <v>0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
+        <v>0.88370000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>11</v>
       </c>
       <c r="B22" s="2">
-        <v>0.90249999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
+        <v>0.9032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>11</v>
       </c>
       <c r="B23" s="2">
-        <v>0.94650000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
+        <v>0.93710000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" s="3">
-        <v>0.81579999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
+      <c r="B24" s="4">
+        <v>0.79910000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>12</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9798</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>13</v>
       </c>
       <c r="B26" s="4">
-        <v>0.89380000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
+        <v>0.84389999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>13</v>
       </c>
       <c r="B27" s="2">
-        <v>0.95089999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
+        <v>0.88009999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="4">
-        <v>0.88370000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
+      <c r="B28" s="2">
+        <v>0.88580000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>14</v>
       </c>
       <c r="B29" s="2">
-        <v>0.93859999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
+        <v>0.96319999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>15</v>
       </c>
@@ -730,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>15</v>
       </c>
@@ -738,17 +726,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="5">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.91712666666666665</v>
+        <v>0.91026000000000018</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8064</v>
+        <v>0.8316</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6814</v>
+        <v>0.7464</v>
       </c>
     </row>
     <row r="8">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7659</v>
+        <v>0.7746</v>
       </c>
     </row>
     <row r="14">
@@ -761,7 +761,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7168</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="31">
@@ -816,7 +816,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7991</v>
+        <v>0.8201000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -871,7 +871,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7457</v>
+        <v>0.8605</v>
       </c>
     </row>
     <row r="41">
@@ -904,7 +904,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7803</v>
+        <v>0.7811</v>
       </c>
     </row>
     <row r="44">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7529</v>
+        <v>0.7608</v>
       </c>
     </row>
     <row r="17">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7868000000000001</v>
+        <v>0.8085</v>
       </c>
     </row>
     <row r="20">
@@ -816,7 +816,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8201000000000001</v>
+        <v>0.8316</v>
       </c>
     </row>
     <row r="36">
@@ -849,7 +849,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8439</v>
+        <v>0.8974</v>
       </c>
     </row>
     <row r="39">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -1,37 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E252D-5264-4040-A56B-1A12AFC1A3A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>2 Experts</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +92,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,527 +422,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>people</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2 Experts</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.9458</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C2">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.9126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="C3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.8316</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>0.83160000000000001</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.9016999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="C5">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.8512</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.7464</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C7">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.8064</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C9">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.8121</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="C12">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.7746</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="C13">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.7334000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="C14">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.7955</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="C15">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.7738</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="C16">
+        <v>0.77380000000000004</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.8324</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="C18">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.9581</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="C19">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.9500999999999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="C20">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.9126</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="C21">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.8250999999999999</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="C22">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.9053</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="C23">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.9328</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="C24">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.927</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="C25">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.9718</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.9494</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="C27">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="C28">
+        <v>0.94</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.8331</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="C29">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.763</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="C30">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.9169</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="C31">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.7861</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="C32">
+        <v>0.78610000000000002</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.9032</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.9371</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="C34">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.8316</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="C35">
+        <v>0.83160000000000001</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.7731</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="C36">
+        <v>0.77310000000000001</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.9964</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="C37">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.8974</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="C38">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.8801</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="C39">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.8605</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="C40">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.8858</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="C41">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.9631999999999999</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="C42">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.7811</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="C43">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.9104</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="C44">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1</v>
       </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E252D-5264-4040-A56B-1A12AFC1A3A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F31234B-FCBF-2F43-9D78-C64055C93A85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,16 +59,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -110,17 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -438,553 +431,549 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.94579999999999997</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.91259999999999997</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.83160000000000001</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.90169999999999995</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.85119999999999996</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.74639999999999995</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.80640000000000001</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.81210000000000004</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.77459999999999996</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.73340000000000005</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>0.80559999999999998</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>0.77380000000000004</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>0.83240000000000003</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0.95809999999999995</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.95009999999999994</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>0.91259999999999997</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0.82509999999999994</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>0.90529999999999999</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>0.93279999999999996</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0.92700000000000005</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>0.9718</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>0.94940000000000002</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>0.94</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>0.83309999999999995</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>0.76300000000000001</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>0.91690000000000005</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>0.78610000000000002</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>0.9032</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>0.93710000000000004</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>0.83160000000000001</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>0.77310000000000001</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>0.99639999999999995</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>0.89880000000000004</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>0.89810000000000001</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>0.86050000000000004</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>0.90610000000000002</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>0.96319999999999995</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>0.78539999999999999</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>0.95589999999999997</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
-      <c r="B47" s="3"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9053</v>
+        <v>0.9104</v>
       </c>
     </row>
     <row r="24">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -849,7 +849,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8988</v>
+        <v>0.9032</v>
       </c>
     </row>
     <row r="39">
@@ -860,7 +860,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8981</v>
+        <v>0.9169</v>
       </c>
     </row>
     <row r="40">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8512</v>
+        <v>0.8858</v>
       </c>
     </row>
     <row r="7">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -750,7 +750,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8331</v>
+        <v>0.8808</v>
       </c>
     </row>
     <row r="30">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -563,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8121</v>
+        <v>0.8179</v>
       </c>
     </row>
     <row r="13">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,89 +50,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -486,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9016999999999999</v>
+        <v>0.9371</v>
       </c>
     </row>
     <row r="6">
@@ -695,7 +628,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9328</v>
+        <v>0.9415</v>
       </c>
     </row>
     <row r="25">
@@ -772,7 +705,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9169</v>
+        <v>0.9617</v>
       </c>
     </row>
     <row r="32">
@@ -805,7 +738,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9371</v>
+        <v>0.9436</v>
       </c>
     </row>
     <row r="35">
@@ -941,6 +874,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -815,7 +815,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9061</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="42">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -584,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9500999999999999</v>
+        <v>0.9812</v>
       </c>
     </row>
     <row r="21">
@@ -672,7 +672,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9473</v>
       </c>
     </row>
     <row r="29">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -727,7 +727,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9032</v>
+        <v>0.9133</v>
       </c>
     </row>
     <row r="34">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -397,7 +397,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9126</v>
+        <v>0.9298999999999999</v>
       </c>
     </row>
     <row r="4">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -595,7 +595,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9126</v>
+        <v>0.9212</v>
       </c>
     </row>
     <row r="22">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -793,7 +793,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9169</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="40">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -595,7 +595,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9212</v>
+        <v>0.9357</v>
       </c>
     </row>
     <row r="22">

--- a/res/SEED/result.xlsx
+++ b/res/SEED/result.xlsx
@@ -782,7 +782,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9032</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="39">
